--- a/v1/infos.xlsx
+++ b/v1/infos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Automacao_Selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Automacao_Selenium\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EDB0D1-AD0F-4A4E-88A8-93246AB58D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D934EA08-FF21-4579-B830-CFEDEDE9CB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>E-mail</t>
   </si>
   <si>
@@ -42,22 +39,25 @@
     <t>celsoricardo1312@gmail.com</t>
   </si>
   <si>
-    <t>Sobrenome</t>
-  </si>
-  <si>
     <t>Lima</t>
   </si>
   <si>
     <t>Ricardo</t>
   </si>
   <si>
-    <t>Senha</t>
-  </si>
-  <si>
     <t>hirozaki1312</t>
   </si>
   <si>
     <t>uchihaitachi1308@gmail.com</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -399,56 +399,56 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="10:10" x14ac:dyDescent="0.25">
@@ -456,8 +456,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{09143249-8ECA-4E49-ACDF-61746D7D151F}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{438E0AAD-C7EB-4320-9DA1-4FBCC564F2AE}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{09143249-8ECA-4E49-ACDF-61746D7D151F}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{438E0AAD-C7EB-4320-9DA1-4FBCC564F2AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
